--- a/sql/пароли.xlsx
+++ b/sql/пароли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fialka\Desktop\diplom\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B342E16-5514-48FE-82EE-81BFACEDD228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A232F0-45A9-4D8E-AF51-FD2C5E11CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="-15660" windowWidth="15855" windowHeight="11295" xr2:uid="{A8162E55-D830-41CF-B59C-78E0E11C55C3}"/>
+    <workbookView xWindow="11445" yWindow="4410" windowWidth="15855" windowHeight="11295" xr2:uid="{A8162E55-D830-41CF-B59C-78E0E11C55C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17098DAA-7369-4448-BFEE-14C53F00A099}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
